--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T09:13:58+00:00</t>
+    <t>2022-03-30T09:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:29:59+00:00</t>
+    <t>2022-03-30T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:36:20+00:00</t>
+    <t>2022-03-30T09:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:37:53+00:00</t>
+    <t>2022-03-31T12:02:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T12:02:56+00:00</t>
+    <t>2022-04-20T16:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:54:19+00:00</t>
+    <t>2022-04-21T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T07:12:34+00:00</t>
+    <t>2022-04-22T12:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:41:11+00:00</t>
+    <t>2022-04-22T12:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:50:48+00:00</t>
+    <t>2022-04-22T14:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T14:55:40+00:00</t>
+    <t>2022-05-04T13:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:51:33+00:00</t>
+    <t>2022-05-23T11:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:41:38+00:00</t>
+    <t>2022-05-23T13:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:12:45+00:00</t>
+    <t>2022-05-24T10:44:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:44:26+00:00</t>
+    <t>2022-07-14T07:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:12:54+00:00</t>
+    <t>2022-07-25T13:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SD_Karnofsky_Performance_Status</t>
+    <t>Karnofsky_Performance_Status</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,10 +274,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -299,7 +295,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -698,6 +694,10 @@
   </si>
   <si>
     <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1958,39 +1958,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2221,19 +2221,19 @@
         <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2255,28 +2255,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2326,13 +2326,13 @@
         <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>82</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2372,25 +2372,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2441,19 +2441,19 @@
         <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2487,28 +2487,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2558,19 +2558,19 @@
         <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2604,7 +2604,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -2616,16 +2616,16 @@
         <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2651,43 +2651,43 @@
         <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>82</v>
@@ -2710,18 +2710,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>82</v>
@@ -2733,16 +2733,16 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2792,31 +2792,31 @@
         <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -2827,11 +2827,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2850,16 +2850,16 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2909,7 +2909,7 @@
         <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -2933,7 +2933,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -2944,11 +2944,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2967,16 +2967,16 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3026,7 +3026,7 @@
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -3038,7 +3038,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>82</v>
@@ -3050,7 +3050,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3061,11 +3061,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3078,25 +3078,25 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>82</v>
@@ -3145,7 +3145,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3157,7 +3157,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -3169,7 +3169,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3200,20 +3200,20 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>82</v>
@@ -3262,7 +3262,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3274,22 +3274,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3297,11 +3297,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3317,20 +3317,20 @@
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
@@ -3379,7 +3379,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3391,19 +3391,19 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3414,11 +3414,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3434,19 +3434,19 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3496,7 +3496,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3508,19 +3508,19 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3539,34 +3539,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
@@ -3591,58 +3591,58 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
@@ -3673,19 +3673,19 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -3710,29 +3710,29 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -3744,7 +3744,7 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -3756,10 +3756,10 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -3767,17 +3767,17 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
@@ -3792,19 +3792,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3814,7 +3814,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>82</v>
@@ -3829,14 +3829,14 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -3865,7 +3865,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>82</v>
@@ -3877,10 +3877,10 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -3888,42 +3888,42 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
@@ -3948,66 +3948,66 @@
         <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4018,7 +4018,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>
@@ -4030,7 +4030,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>219</v>
@@ -4093,7 +4093,7 @@
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4145,16 +4145,16 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4201,7 +4201,7 @@
         <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>227</v>
@@ -4216,7 +4216,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>82</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>81</v>
@@ -4259,7 +4259,7 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>229</v>
@@ -4311,14 +4311,14 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>234</v>
@@ -4333,7 +4333,7 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>82</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>81</v>
@@ -4378,7 +4378,7 @@
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>229</v>
@@ -4454,7 +4454,7 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>82</v>
@@ -4488,7 +4488,7 @@
         <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>82</v>
@@ -4500,7 +4500,7 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>219</v>
@@ -4563,7 +4563,7 @@
         <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>82</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4615,16 +4615,16 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4671,7 +4671,7 @@
         <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>227</v>
@@ -4686,7 +4686,7 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>82</v>
@@ -4717,22 +4717,22 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>242</v>
@@ -4799,13 +4799,13 @@
         <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -4839,19 +4839,19 @@
         <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>250</v>
@@ -4916,13 +4916,13 @@
         <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>82</v>
@@ -4953,22 +4953,22 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>257</v>
@@ -5033,13 +5033,13 @@
         <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>82</v>
@@ -5073,19 +5073,19 @@
         <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>264</v>
@@ -5150,13 +5150,13 @@
         <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>82</v>
@@ -5190,16 +5190,16 @@
         <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>271</v>
@@ -5269,13 +5269,13 @@
         <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>82</v>
@@ -5320,7 +5320,7 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>229</v>
@@ -5396,7 +5396,7 @@
         <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>82</v>
@@ -5430,7 +5430,7 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5442,7 +5442,7 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>219</v>
@@ -5505,7 +5505,7 @@
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>82</v>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5557,16 +5557,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5613,7 +5613,7 @@
         <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>227</v>
@@ -5628,7 +5628,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>82</v>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>242</v>
@@ -5741,13 +5741,13 @@
         <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
@@ -5781,19 +5781,19 @@
         <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>250</v>
@@ -5858,13 +5858,13 @@
         <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>82</v>
@@ -5895,22 +5895,22 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>257</v>
@@ -5975,13 +5975,13 @@
         <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -6015,19 +6015,19 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>264</v>
@@ -6092,13 +6092,13 @@
         <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>82</v>
@@ -6132,16 +6132,16 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>271</v>
@@ -6211,13 +6211,13 @@
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
@@ -6251,19 +6251,19 @@
         <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>282</v>
@@ -6330,13 +6330,13 @@
         <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>82</v>
@@ -6367,19 +6367,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>290</v>
@@ -6449,13 +6449,13 @@
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>295</v>
@@ -6498,7 +6498,7 @@
         <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>300</v>
@@ -6572,7 +6572,7 @@
         <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>82</v>
@@ -6581,7 +6581,7 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>304</v>
@@ -6606,16 +6606,16 @@
         <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>307</v>
@@ -6685,13 +6685,13 @@
         <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>312</v>
@@ -6725,16 +6725,16 @@
         <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>318</v>
@@ -6804,13 +6804,13 @@
         <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>323</v>
@@ -6844,16 +6844,16 @@
         <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>328</v>
@@ -6921,13 +6921,13 @@
         <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>82</v>
@@ -6970,7 +6970,7 @@
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>336</v>
@@ -7044,7 +7044,7 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>340</v>
@@ -7078,19 +7078,19 @@
         <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>345</v>
@@ -7155,13 +7155,13 @@
         <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>82</v>
@@ -7197,19 +7197,19 @@
         <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>345</v>
@@ -7246,7 +7246,7 @@
         <v>82</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
@@ -7274,13 +7274,13 @@
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
@@ -7314,7 +7314,7 @@
         <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>82</v>
@@ -7326,7 +7326,7 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>359</v>
@@ -7393,13 +7393,13 @@
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>82</v>
@@ -7408,7 +7408,7 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>367</v>
@@ -7445,7 +7445,7 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>370</v>
@@ -7518,7 +7518,7 @@
         <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>82</v>
@@ -7637,7 +7637,7 @@
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>82</v>
@@ -7671,7 +7671,7 @@
         <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>82</v>
@@ -7683,7 +7683,7 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>389</v>
@@ -7718,7 +7718,7 @@
         <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>392</v>
@@ -7748,13 +7748,13 @@
         <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>82</v>
@@ -7788,7 +7788,7 @@
         <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>82</v>
@@ -7800,7 +7800,7 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>399</v>
@@ -7837,7 +7837,7 @@
         <v>82</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>403</v>
@@ -7867,13 +7867,13 @@
         <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>82</v>
@@ -7907,7 +7907,7 @@
         <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>82</v>
@@ -7984,13 +7984,13 @@
         <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>82</v>
@@ -8024,7 +8024,7 @@
         <v>80</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>82</v>
@@ -8101,13 +8101,13 @@
         <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>82</v>
@@ -8260,7 +8260,7 @@
         <v>80</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>82</v>
@@ -8272,7 +8272,7 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>219</v>
@@ -8335,7 +8335,7 @@
         <v>80</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>82</v>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8387,16 +8387,16 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8458,7 +8458,7 @@
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>82</v>
@@ -8498,13 +8498,13 @@
         <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>438</v>
@@ -8513,10 +8513,10 @@
         <v>439</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>82</v>
@@ -8577,7 +8577,7 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>82</v>
@@ -8589,7 +8589,7 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
@@ -8611,7 +8611,7 @@
         <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>82</v>
@@ -8686,13 +8686,13 @@
         <v>80</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>445</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>82</v>
@@ -8726,7 +8726,7 @@
         <v>80</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>82</v>
@@ -8801,13 +8801,13 @@
         <v>80</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>445</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>82</v>
@@ -8841,7 +8841,7 @@
         <v>80</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>82</v>
@@ -8853,7 +8853,7 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>453</v>
@@ -8890,7 +8890,7 @@
         <v>82</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>457</v>
@@ -8920,13 +8920,13 @@
         <v>80</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>82</v>
@@ -8972,7 +8972,7 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>462</v>
@@ -9009,7 +9009,7 @@
         <v>82</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>466</v>
@@ -9045,7 +9045,7 @@
         <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>82</v>
@@ -9079,7 +9079,7 @@
         <v>80</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>82</v>
@@ -9156,13 +9156,13 @@
         <v>80</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>82</v>
@@ -9196,7 +9196,7 @@
         <v>80</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>82</v>
@@ -9208,7 +9208,7 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>475</v>
@@ -9271,13 +9271,13 @@
         <v>80</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>82</v>
@@ -9320,7 +9320,7 @@
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>479</v>
@@ -9394,7 +9394,7 @@
         <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>82</v>
@@ -9437,7 +9437,7 @@
         <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>486</v>
@@ -9511,7 +9511,7 @@
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>82</v>
@@ -9554,7 +9554,7 @@
         <v>82</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>426</v>
@@ -9630,7 +9630,7 @@
         <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>82</v>
@@ -9664,7 +9664,7 @@
         <v>80</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>82</v>
@@ -9676,7 +9676,7 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>219</v>
@@ -9739,7 +9739,7 @@
         <v>80</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>82</v>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9791,16 +9791,16 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9862,7 +9862,7 @@
         <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>82</v>
@@ -9902,13 +9902,13 @@
         <v>82</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>438</v>
@@ -9917,10 +9917,10 @@
         <v>439</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>82</v>
@@ -9981,7 +9981,7 @@
         <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>82</v>
@@ -9993,7 +9993,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10012,22 +10012,22 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F69" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>502</v>
@@ -10039,7 +10039,7 @@
         <v>504</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>82</v>
@@ -10064,13 +10064,13 @@
         <v>82</v>
       </c>
       <c r="W69" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="X69" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="X69" t="s" s="2">
+      <c r="Y69" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>82</v>
@@ -10091,16 +10091,16 @@
         <v>501</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>82</v>
@@ -10109,13 +10109,13 @@
         <v>505</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10134,16 +10134,16 @@
         <v>80</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>507</v>
@@ -10213,13 +10213,13 @@
         <v>80</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>82</v>
@@ -10253,7 +10253,7 @@
         <v>80</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>82</v>
@@ -10265,7 +10265,7 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>512</v>
@@ -10332,13 +10332,13 @@
         <v>80</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>82</v>
@@ -10347,7 +10347,7 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>367</v>
@@ -10384,7 +10384,7 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>370</v>
@@ -10457,7 +10457,7 @@
         <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>82</v>
@@ -10576,7 +10576,7 @@
         <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="494">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2020,19 +2024,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -2043,10 +2047,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2057,7 +2061,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -2066,19 +2070,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2128,13 +2132,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2163,10 +2167,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2177,7 +2181,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2186,16 +2190,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2246,19 +2250,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2281,10 +2285,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2295,28 +2299,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2366,19 +2370,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2401,10 +2405,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2415,7 +2419,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2427,16 +2431,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2462,13 +2466,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2486,19 +2490,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2521,21 +2525,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2547,16 +2551,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2606,19 +2610,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2630,7 +2634,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -2641,14 +2645,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2667,16 +2671,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2726,7 +2730,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2750,7 +2754,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -2761,14 +2765,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2787,16 +2791,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2846,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2858,7 +2862,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2870,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -2881,14 +2885,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2901,25 +2905,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2968,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2980,7 +2984,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2992,7 +2996,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -3003,10 +3007,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3026,20 +3030,20 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -3088,7 +3092,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3100,22 +3104,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -3123,14 +3127,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3146,20 +3150,20 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -3208,7 +3212,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3220,19 +3224,19 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -3243,14 +3247,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3266,19 +3270,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3328,7 +3332,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3340,19 +3344,19 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3363,10 +3367,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3374,34 +3378,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3426,13 +3430,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -3450,34 +3454,34 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3485,10 +3489,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3496,7 +3500,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3511,19 +3515,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3548,29 +3552,29 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3582,7 +3586,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3594,10 +3598,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3605,20 +3609,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -3633,19 +3637,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3655,7 +3659,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3670,13 +3674,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3694,7 +3698,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3706,7 +3710,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3718,10 +3722,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3729,21 +3733,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3752,22 +3756,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3792,13 +3796,13 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>41</v>
@@ -3816,45 +3820,45 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3865,7 +3869,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3877,13 +3881,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3934,13 +3938,13 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
@@ -3958,7 +3962,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -3969,14 +3973,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3995,16 +3999,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4042,19 +4046,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4066,7 +4070,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -4078,7 +4082,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4089,10 +4093,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4100,7 +4104,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -4112,22 +4116,22 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -4164,17 +4168,17 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4186,7 +4190,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -4195,10 +4199,10 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4209,20 +4213,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -4234,22 +4238,22 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
@@ -4259,7 +4263,7 @@
         <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>41</v>
@@ -4298,7 +4302,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4310,7 +4314,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -4319,10 +4323,10 @@
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4333,10 +4337,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4347,7 +4351,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4359,13 +4363,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4416,13 +4420,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4440,7 +4444,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4451,14 +4455,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4477,16 +4481,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4524,19 +4528,19 @@
         <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4548,7 +4552,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4560,7 +4564,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4571,10 +4575,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4582,10 +4586,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4594,22 +4598,22 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4658,19 +4662,19 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -4679,10 +4683,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4693,10 +4697,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4707,7 +4711,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4716,19 +4720,19 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4778,19 +4782,19 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -4799,10 +4803,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4813,10 +4817,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4824,10 +4828,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4836,20 +4840,20 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4898,19 +4902,19 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -4919,10 +4923,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -4933,10 +4937,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4947,7 +4951,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4956,20 +4960,20 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5018,19 +5022,19 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -5039,10 +5043,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5053,10 +5057,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5067,7 +5071,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5076,22 +5080,22 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5140,19 +5144,19 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5161,10 +5165,10 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -5175,13 +5179,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>41</v>
@@ -5200,22 +5204,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5225,7 +5229,7 @@
         <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>41</v>
@@ -5264,7 +5268,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5276,7 +5280,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -5285,10 +5289,10 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5299,10 +5303,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5313,7 +5317,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5325,13 +5329,13 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5382,13 +5386,13 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
@@ -5406,7 +5410,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5417,14 +5421,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5443,16 +5447,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5490,19 +5494,19 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5514,7 +5518,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5526,7 +5530,7 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5537,10 +5541,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5548,10 +5552,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5560,22 +5564,22 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5624,19 +5628,19 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5645,10 +5649,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5659,10 +5663,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5673,7 +5677,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5682,19 +5686,19 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5744,19 +5748,19 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -5765,10 +5769,10 @@
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5779,10 +5783,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5790,10 +5794,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5802,20 +5806,20 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5864,19 +5868,19 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -5885,10 +5889,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -5899,10 +5903,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5913,7 +5917,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -5922,20 +5926,20 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5984,19 +5988,19 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -6005,10 +6009,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6019,10 +6023,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6033,7 +6037,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -6042,22 +6046,22 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6106,19 +6110,19 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -6127,10 +6131,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6141,10 +6145,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6155,7 +6159,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6164,22 +6168,22 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6228,19 +6232,19 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -6249,10 +6253,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6263,10 +6267,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6274,10 +6278,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -6286,22 +6290,22 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6350,34 +6354,34 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>41</v>
@@ -6385,10 +6389,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6408,19 +6412,19 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6470,7 +6474,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6482,7 +6486,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -6491,13 +6495,13 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>41</v>
@@ -6505,21 +6509,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6528,22 +6532,22 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6592,34 +6596,34 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>41</v>
@@ -6627,21 +6631,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6650,22 +6654,22 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6714,34 +6718,34 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>41</v>
@@ -6749,10 +6753,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6763,7 +6767,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6772,19 +6776,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6834,19 +6838,19 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -6855,13 +6859,13 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>41</v>
@@ -6869,10 +6873,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6892,20 +6896,20 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6954,7 +6958,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6966,22 +6970,22 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>41</v>
@@ -6989,10 +6993,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7003,7 +7007,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -7012,22 +7016,22 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -7052,11 +7056,11 @@
         <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>41</v>
@@ -7074,45 +7078,45 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7123,7 +7127,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -7135,19 +7139,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -7172,13 +7176,13 @@
         <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>41</v>
@@ -7196,19 +7200,19 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -7217,10 +7221,10 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7231,14 +7235,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7257,19 +7261,19 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -7294,13 +7298,13 @@
         <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>41</v>
@@ -7318,7 +7322,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7330,33 +7334,33 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7379,19 +7383,19 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7440,7 +7444,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7452,7 +7456,7 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -7461,10 +7465,10 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7475,10 +7479,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7489,7 +7493,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7501,16 +7505,16 @@
         <v>41</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7536,13 +7540,13 @@
         <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7560,45 +7564,45 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7609,7 +7613,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7621,19 +7625,19 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7658,13 +7662,13 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
@@ -7682,19 +7686,19 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>41</v>
@@ -7703,10 +7707,10 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7717,10 +7721,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7731,7 +7735,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7743,16 +7747,16 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7802,45 +7806,45 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7851,7 +7855,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7863,16 +7867,16 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7922,45 +7926,45 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7983,19 +7987,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8044,7 +8048,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8056,7 +8060,7 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
@@ -8065,10 +8069,10 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8079,10 +8083,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8093,7 +8097,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8105,13 +8109,13 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8162,13 +8166,13 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
@@ -8186,7 +8190,7 @@
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8197,14 +8201,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8223,16 +8227,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8282,7 +8286,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8294,7 +8298,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8306,7 +8310,7 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8317,14 +8321,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8337,25 +8341,25 @@
         <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8404,7 +8408,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8416,7 +8420,7 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
@@ -8428,7 +8432,7 @@
         <v>41</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8439,10 +8443,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8453,7 +8457,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8465,13 +8469,13 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8522,19 +8526,19 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8543,10 +8547,10 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8557,10 +8561,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8571,7 +8575,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8583,13 +8587,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8640,19 +8644,19 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
@@ -8661,10 +8665,10 @@
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8675,10 +8679,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8689,7 +8693,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
@@ -8701,19 +8705,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8738,13 +8742,13 @@
         <v>41</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>41</v>
@@ -8762,31 +8766,31 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -8797,10 +8801,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8823,19 +8827,19 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8860,13 +8864,13 @@
         <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>41</v>
@@ -8884,7 +8888,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8896,19 +8900,19 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -8919,10 +8923,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8933,7 +8937,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -8945,17 +8949,17 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -9004,19 +9008,19 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
@@ -9028,7 +9032,7 @@
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9039,10 +9043,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9053,7 +9057,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9065,13 +9069,13 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9122,19 +9126,19 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
@@ -9143,10 +9147,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9157,10 +9161,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9180,19 +9184,19 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9242,7 +9246,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9254,7 +9258,7 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
@@ -9263,10 +9267,10 @@
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9277,10 +9281,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9300,19 +9304,19 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9362,7 +9366,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9374,7 +9378,7 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
@@ -9383,10 +9387,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9397,10 +9401,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9420,22 +9424,22 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9484,7 +9488,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9496,7 +9500,7 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9505,10 +9509,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9519,10 +9523,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9533,7 +9537,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9545,13 +9549,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9602,13 +9606,13 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
@@ -9626,7 +9630,7 @@
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9637,14 +9641,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9663,16 +9667,16 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9722,7 +9726,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9734,7 +9738,7 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
@@ -9746,7 +9750,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -9757,14 +9761,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9777,25 +9781,25 @@
         <v>41</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9844,7 +9848,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9856,7 +9860,7 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -9868,7 +9872,7 @@
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9879,10 +9883,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9890,10 +9894,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -9902,22 +9906,22 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -9942,13 +9946,13 @@
         <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>41</v>
@@ -9966,34 +9970,34 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>41</v>
@@ -10001,10 +10005,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10015,7 +10019,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -10024,22 +10028,22 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -10088,45 +10092,45 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10137,7 +10141,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -10149,19 +10153,19 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10186,13 +10190,13 @@
         <v>41</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>41</v>
@@ -10210,19 +10214,19 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
@@ -10231,10 +10235,10 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10245,14 +10249,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10271,19 +10275,19 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10308,13 +10312,13 @@
         <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>41</v>
@@ -10332,7 +10336,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10344,33 +10348,33 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10396,16 +10400,16 @@
         <v>42</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10454,7 +10458,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10466,7 +10470,7 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
@@ -10475,10 +10479,10 @@
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
